--- a/Datas/A.xlsx
+++ b/Datas/A.xlsx
@@ -251,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +452,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -711,13 +721,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1061,7 +1072,7 @@
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>10074</v>
       </c>
     </row>
@@ -1121,7 +1132,7 @@
       <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>100743</v>
       </c>
     </row>
